--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA375DB2-7A7B-415D-970A-730F86BD61B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D97CE1-9EC6-44FF-BFB4-2A70C31B8A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12795" yWindow="120" windowWidth="7830" windowHeight="10920" activeTab="3" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bastones" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">TdF!$C$25:$C$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TdF!$D$25:$D$29</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TdF!$G$25:$G$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TdF!$H$25:$H$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">TdF!$E$25:$E$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TdF!$G$25:$G$29</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">TdF!$H$25:$H$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">TdF!$E$25:$E$29</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">TdF!$G$25:$G$29</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">TdF!$H$25:$H$29</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
     <definedName name="EdadesDatos">[1]Video6!$B$2:$K$7</definedName>
     <definedName name="EdadesIntervalo">[1]Video6!$D$12</definedName>
@@ -94,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>FAA</t>
   </si>
@@ -389,12 +399,30 @@
   <si>
     <t>Fr</t>
   </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-  ¿Qué tipo de variable es? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b-  ¿Cuántas ventas tuvieron un monto inferior a $215? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-  ¿Cuántas ventas tuvieron un monto superior a $220? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d-  Graficar </t>
+  </si>
+  <si>
+    <t>Faa es cuantitativa continua</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +518,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,22 +631,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -646,6 +680,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2259,6 +2303,158 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Ventas en un día determinado</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>(Histograma)</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{88DCCB3E-9BC0-4330-985A-516CBD689778}" formatIdx="0">
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{248EEEAE-8BB2-4784-823B-E759D1F71E78}" formatIdx="2">
+          <cx:dataLabels/>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amplitud</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amplitud</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Frecuencia absoluta</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Frecuencia absoluta</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2379,6 +2575,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3910,6 +4146,514 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4038,6 +4782,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1238249</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41697ED5-8209-F067-547C-702976EC346C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1352549" y="8015286"/>
+              <a:ext cx="5876925" cy="3319463"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4467,7 +5294,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0D93A850-DD4C-4219-834E-FD018C92D1DD}" name="Cantidad de Hijos (xi)"/>
     <tableColumn id="2" xr3:uid="{B8B7DB5F-4838-4CD4-A99F-B964123CEF9E}" name="Cantidad de Mujeres (fi)"/>
-    <tableColumn id="3" xr3:uid="{54A8C9DE-2FC9-48F4-AC36-24CA71B6CF19}" name="Fac" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{54A8C9DE-2FC9-48F4-AC36-24CA71B6CF19}" name="Fac" dataDxfId="27">
       <calculatedColumnFormula>SUM(INDEX(Tabla9[Cantidad de Mujeres (fi)],1):Tabla9[[#This Row],[Cantidad de Mujeres (fi)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4480,7 +5307,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{97660224-32B9-40D7-B082-1780EDCD4767}" name="Materias (x)"/>
     <tableColumn id="2" xr3:uid="{F9E3F17F-BB4E-4EC2-BD88-460C5D15453B}" name="Alumnos (f)"/>
-    <tableColumn id="3" xr3:uid="{2DA26827-1467-48FD-9A9F-9027CE057955}" name="FAA" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{2DA26827-1467-48FD-9A9F-9027CE057955}" name="FAA" dataDxfId="26">
       <calculatedColumnFormula>SUM(INDEX(Tabla911[Alumnos (f)],1):Tabla911[[#This Row],[Alumnos (f)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4495,7 +5322,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0882C26D-6EA1-4CAC-9A07-2704EEE34CF5}" name="Cantidad de Hijos (xi)"/>
-    <tableColumn id="3" xr3:uid="{7373EDD8-0513-4124-A09F-28E9605C2FCD}" name="Fac" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7373EDD8-0513-4124-A09F-28E9605C2FCD}" name="Fac" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4504,30 +5331,30 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E0D4D36-DD27-453B-8723-47B3076B584D}" name="Tabla2" displayName="Tabla2" ref="L13:S21" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{0A53712E-2CE1-4D3E-835E-053851610F89}" name="Intervalo" dataDxfId="24">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{95B66EDA-4894-4D52-B862-AD79C4B55BA8}" name="Li" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(Tabla2[[#This Row],[Intervalo]]=1,VelocidadMinima,INDEX(Tabla2[Ls],Tabla2[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{DA0E75B8-9B26-4EEA-9DB3-F98B1F47E516}" name="Ls">
       <calculatedColumnFormula>Tabla2[[#This Row],[Li]]+VelocidadAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{A442407E-9BF8-48AD-9F38-117CC71388A0}" name="X" dataDxfId="22">
       <calculatedColumnFormula>AVERAGE(Tabla2[[#This Row],[Li]],Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{559733AA-4545-40B3-B4E4-BA1C4A552CC9}" name="f" totalsRowFunction="custom" dataDxfId="21">
       <calculatedColumnFormula>COUNTIFS(VelocidadDatos,"&gt;="&amp;Tabla2[[#This Row],[Li]],VelocidadDatos,"&lt;"&amp;Tabla2[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{9513426F-2D77-4DB7-9E3C-FDA866D3F828}" name="F2" dataDxfId="20">
       <calculatedColumnFormula>SUM(INDEX(Tabla2[f],1):Tabla2[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{898808BA-7B1D-423A-AFC5-36F396340D6F}" name="fr" totalsRowFunction="custom" dataDxfId="19">
       <calculatedColumnFormula>Tabla2[[#This Row],[f]]/COUNT(VelocidadDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{54A61169-26D4-40D1-AB37-CC7B3CFF951D}" name="%" totalsRowFunction="custom" dataDxfId="18">
       <calculatedColumnFormula>Tabla2[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla2[%])</totalsRowFormula>
     </tableColumn>
@@ -4539,30 +5366,30 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D39AB559-9D4F-493D-A0E8-7F53ECAD87EC}" name="Tabla213" displayName="Tabla213" ref="L36:S44" totalsRowCount="1">
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{05CF4DB7-8893-4548-A109-59A30E3ABA6F}" name="Intervalo" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{05CF4DB7-8893-4548-A109-59A30E3ABA6F}" name="Intervalo" dataDxfId="17">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{22857361-AD1F-4713-B939-EC30A4E6C691}" name="Li" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{22857361-AD1F-4713-B939-EC30A4E6C691}" name="Li" dataDxfId="16">
       <calculatedColumnFormula array="1">IF(Tabla213[[#This Row],[Intervalo]]=1,MontoMinimo,INDEX(Tabla213[Ls],Tabla213[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{42F79BB3-0592-412F-B6E2-0382C35E5133}" name="Ls" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{42F79BB3-0592-412F-B6E2-0382C35E5133}" name="Ls" dataDxfId="15">
       <calculatedColumnFormula>Tabla213[[#This Row],[Li]]+MontoAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B55922B1-344B-4D22-A14B-AB2F3927ED32}" name="X" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{B55922B1-344B-4D22-A14B-AB2F3927ED32}" name="X" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(Tabla213[[#This Row],[Li]],Tabla213[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A717B9F9-6B4B-43D6-829B-F0693B32AFE8}" name="f" totalsRowFunction="custom" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{A717B9F9-6B4B-43D6-829B-F0693B32AFE8}" name="f" totalsRowFunction="custom" dataDxfId="13">
       <calculatedColumnFormula>COUNTIFS(MontoDatos,"&gt;="&amp;Tabla213[[#This Row],[Li]],MontoDatos,"&lt;"&amp;Tabla213[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla213[f])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{806DA728-6A9C-4635-8E78-200E49F02EA7}" name="F2" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{806DA728-6A9C-4635-8E78-200E49F02EA7}" name="F2" dataDxfId="12">
       <calculatedColumnFormula>SUM(INDEX(Tabla213[f],1):Tabla213[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7DA8DAE7-53D0-4A18-892F-99C4D9910B08}" name="fr" totalsRowFunction="custom" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{7DA8DAE7-53D0-4A18-892F-99C4D9910B08}" name="fr" totalsRowFunction="custom" dataDxfId="11">
       <calculatedColumnFormula>Tabla213[[#This Row],[f]]/COUNT(MontoDatos)</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla213[fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FB4794A1-E344-4D52-B200-86D8C5A48F4B}" name="%" totalsRowFunction="custom" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{FB4794A1-E344-4D52-B200-86D8C5A48F4B}" name="%" totalsRowFunction="custom" dataDxfId="10">
       <calculatedColumnFormula>Tabla213[[#This Row],[fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla213[%])</totalsRowFormula>
     </tableColumn>
@@ -4572,32 +5399,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8A1AD681-8403-4F34-840C-8C33AB350050}" name="Tabla27" displayName="Tabla27" ref="C24:J32" totalsRowCount="1">
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{00D428D7-5BBC-4E39-B4DD-BEEB76B4B901}" name="Intervalo" totalsRowLabel="S" dataDxfId="0" totalsRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8A1AD681-8403-4F34-840C-8C33AB350050}" name="Tabla27" displayName="Tabla27" ref="B24:J30" totalsRowCount="1">
+  <tableColumns count="9">
+    <tableColumn id="8" xr3:uid="{00D428D7-5BBC-4E39-B4DD-BEEB76B4B901}" name="Intervalo" totalsRowLabel="S" dataDxfId="9" totalsRowDxfId="1">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F58894CE-0EBB-4C91-BC25-6D3A596EB303}" name="Li" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{F58894CE-0EBB-4C91-BC25-6D3A596EB303}" name="Li" dataDxfId="8">
       <calculatedColumnFormula array="1">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D3B6F66C-6836-4C32-BE99-CF19A067E501}" name="Ls" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{D3B6F66C-6836-4C32-BE99-CF19A067E501}" name="Ls" dataDxfId="7">
       <calculatedColumnFormula>Tabla27[[#This Row],[Li]]+MuestraAmplitud</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E6D1A1F7-9297-432A-9701-8D7D357CE783}" name="x" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{B8AA1C8D-32C3-47C7-973D-5FF90409377F}" name="Serie" dataDxfId="0">
+      <calculatedColumnFormula>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E6D1A1F7-9297-432A-9701-8D7D357CE783}" name="x" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F9FC388E-B761-4D34-BAC2-998C7E97C3CB}" name="Fab" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{F9FC388E-B761-4D34-BAC2-998C7E97C3CB}" name="Fab" totalsRowFunction="custom" dataDxfId="5">
       <calculatedColumnFormula>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla27[Fab])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{60CA077B-735B-4B42-9663-6549184AA9C0}" name="Faa" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{60CA077B-735B-4B42-9663-6549184AA9C0}" name="Faa" dataDxfId="4">
       <calculatedColumnFormula>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{062EAC8C-E153-43D5-9E7F-8358F8B599F9}" name="Fr" totalsRowFunction="custom" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{062EAC8C-E153-43D5-9E7F-8358F8B599F9}" name="Fr" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>Tabla27[[#This Row],[Fab]]/MuestraCantidad</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla27[Fr])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1C7C27A7-174E-432D-9135-84009EB87C48}" name="%" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{1C7C27A7-174E-432D-9135-84009EB87C48}" name="%" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>Tabla27[[#This Row],[Fr]]*100</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(9,Tabla27[%])</totalsRowFormula>
     </tableColumn>
@@ -6561,10 +7391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D185DD1D-729B-495E-A7F1-28241AB0F49E}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6576,282 +7406,137 @@
     <col min="14" max="14" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:13">
       <c r="B2" s="5">
-        <v>20</v>
+        <v>206.1</v>
       </c>
       <c r="C2" s="5">
-        <v>58</v>
+        <v>216.9</v>
       </c>
       <c r="D2" s="5">
-        <v>22</v>
+        <v>214.4</v>
       </c>
       <c r="E2" s="5">
-        <v>43</v>
+        <v>210.4</v>
       </c>
       <c r="F2" s="5">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5">
-        <v>17</v>
-      </c>
+        <v>228.9</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="M2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O2">
-        <v>206.1</v>
-      </c>
-      <c r="P2">
-        <v>216.9</v>
-      </c>
-      <c r="Q2">
-        <v>214.4</v>
-      </c>
-      <c r="R2">
-        <v>210.4</v>
-      </c>
-      <c r="S2">
-        <v>228.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="5">
-        <v>40</v>
+        <v>216.1</v>
       </c>
       <c r="C3" s="5">
-        <v>16</v>
+        <v>201.2</v>
       </c>
       <c r="D3" s="5">
-        <v>23</v>
+        <v>203.4</v>
       </c>
       <c r="E3" s="5">
-        <v>14</v>
+        <v>211.3</v>
       </c>
       <c r="F3" s="5">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5">
-        <v>34</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>63</v>
-      </c>
-      <c r="J3" s="5">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>216.1</v>
-      </c>
-      <c r="P3">
-        <v>201.2</v>
-      </c>
-      <c r="Q3">
-        <v>203.4</v>
-      </c>
-      <c r="R3">
-        <v>211.3</v>
-      </c>
-      <c r="S3">
         <v>218.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="5">
-        <v>27</v>
+        <v>208.4</v>
       </c>
       <c r="C4" s="5">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="D4" s="5">
-        <v>18</v>
+        <v>224.1</v>
       </c>
       <c r="E4" s="5">
-        <v>27</v>
+        <v>212.2</v>
       </c>
       <c r="F4" s="5">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5">
-        <v>22</v>
-      </c>
-      <c r="J4" s="5">
-        <v>71</v>
-      </c>
-      <c r="K4" s="5">
-        <v>27</v>
-      </c>
-      <c r="O4">
-        <v>208.4</v>
-      </c>
-      <c r="P4">
-        <v>210</v>
-      </c>
-      <c r="Q4">
-        <v>224.1</v>
-      </c>
-      <c r="R4">
-        <v>212.2</v>
-      </c>
-      <c r="S4">
         <v>207.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="5">
-        <v>12</v>
+        <v>214.8</v>
       </c>
       <c r="C5" s="5">
-        <v>15</v>
+        <v>204.7</v>
       </c>
       <c r="D5" s="5">
-        <v>21</v>
+        <v>205.8</v>
       </c>
       <c r="E5" s="5">
-        <v>39</v>
+        <v>213.9</v>
       </c>
       <c r="F5" s="5">
-        <v>60</v>
-      </c>
-      <c r="G5" s="5">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5">
-        <v>17</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45</v>
-      </c>
-      <c r="J5" s="5">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>214.8</v>
-      </c>
-      <c r="P5">
-        <v>204.7</v>
-      </c>
-      <c r="Q5">
-        <v>205.8</v>
-      </c>
-      <c r="R5">
-        <v>213.9</v>
-      </c>
-      <c r="S5">
         <v>217.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="5">
-        <v>53</v>
+        <v>222.4</v>
       </c>
       <c r="C6" s="5">
-        <v>18</v>
+        <v>215.2</v>
       </c>
       <c r="D6" s="5">
-        <v>28</v>
+        <v>219.8</v>
       </c>
       <c r="E6" s="5">
-        <v>9</v>
+        <v>211.4</v>
       </c>
       <c r="F6" s="5">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5">
-        <v>39</v>
-      </c>
-      <c r="I6" s="5">
-        <v>34</v>
-      </c>
-      <c r="J6" s="5">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5">
-        <v>50</v>
-      </c>
-      <c r="O6">
-        <v>222.4</v>
-      </c>
-      <c r="P6">
-        <v>215.2</v>
-      </c>
-      <c r="Q6">
-        <v>219.8</v>
-      </c>
-      <c r="R6">
-        <v>211.4</v>
-      </c>
-      <c r="S6">
         <v>210.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="5">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5">
-        <v>61</v>
-      </c>
-      <c r="H7" s="5">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5">
-        <v>24</v>
-      </c>
-      <c r="J7" s="5">
-        <v>49</v>
-      </c>
-      <c r="K7" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6863,18 +7548,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="1">
         <f>SMALL(MuestraDatos,1)</f>
-        <v>5</v>
+        <v>201.2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6884,13 +7569,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="1">
         <f>LARGE(MuestraDatos,1)</f>
-        <v>71</v>
+        <v>228.9</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6900,13 +7585,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="1">
         <f>COUNT(MuestraDatos)</f>
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6916,7 +7601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
         <v>56</v>
       </c>
@@ -6925,7 +7610,7 @@
       </c>
       <c r="F15" s="1">
         <f>MuestraMaximo-MuestraMinimo</f>
-        <v>66</v>
+        <v>27.700000000000017</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -6935,7 +7620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:13">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -6945,14 +7630,14 @@
       <c r="C16" s="17"/>
       <c r="D16" s="13">
         <f>1+3.322*LOG10(MuestraCantidad)</f>
-        <v>6.9070184537744641</v>
+        <v>5.643956708808509</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="15">
         <f>IF(ISEVEN(ROUNDUP(D16,0)),ROUNDDOWN(D16,0),ROUNDUP(D16,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>59</v>
@@ -6976,14 +7661,14 @@
       <c r="C17" s="17"/>
       <c r="D17" s="13">
         <f>MuestraRango/MuestraIntervalo</f>
-        <v>9.4285714285714288</v>
+        <v>5.5400000000000036</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="15">
         <f>ROUNDUP(D17,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>60</v>
@@ -7002,11 +7687,11 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <f>IF(D18=1,((MuestraIntervalo*MuestraAmplitud)-MuestraRango)/2,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>63</v>
@@ -7024,37 +7709,41 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="99.95" customHeight="1">
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>67</v>
@@ -7073,21 +7762,25 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="C25" s="21" cm="1">
-        <f t="array" ref="C25">ROW(1:1)</f>
+      <c r="B25" s="20" cm="1">
+        <f t="array" ref="B25">ROW(1:1)</f>
         <v>1</v>
       </c>
-      <c r="D25" cm="1">
-        <f t="array" ref="D25">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>3</v>
-      </c>
-      <c r="E25">
+      <c r="C25" cm="1">
+        <f t="array" ref="C25">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
+        <v>201.2</v>
+      </c>
+      <c r="D25">
         <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>13</v>
+        <v>207.2</v>
+      </c>
+      <c r="E25" t="str">
+        <f>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</f>
+        <v>201,2-207,2</v>
       </c>
       <c r="F25">
         <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>8</v>
+        <v>204.2</v>
       </c>
       <c r="G25">
         <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
@@ -7099,240 +7792,220 @@
       </c>
       <c r="I25">
         <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.2</v>
       </c>
       <c r="J25">
         <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>8.3333333333333321</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="C26" s="21" cm="1">
-        <f t="array" ref="C26">ROW(2:2)</f>
+      <c r="B26" s="20" cm="1">
+        <f t="array" ref="B26">ROW(2:2)</f>
         <v>2</v>
       </c>
-      <c r="D26" cm="1">
-        <f t="array" ref="D26">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>13</v>
-      </c>
-      <c r="E26">
+      <c r="C26" cm="1">
+        <f t="array" ref="C26">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
+        <v>207.2</v>
+      </c>
+      <c r="D26">
         <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>23</v>
+        <v>213.2</v>
+      </c>
+      <c r="E26" t="str">
+        <f>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</f>
+        <v>207,2-213,2</v>
       </c>
       <c r="F26">
         <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>18</v>
+        <v>210.2</v>
       </c>
       <c r="G26">
         <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I26">
         <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>0.31666666666666665</v>
+        <v>0.32</v>
       </c>
       <c r="J26">
         <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>31.666666666666664</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="C27" s="21" cm="1">
-        <f t="array" ref="C27">ROW(3:3)</f>
+      <c r="B27" s="20" cm="1">
+        <f t="array" ref="B27">ROW(3:3)</f>
         <v>3</v>
       </c>
-      <c r="D27" cm="1">
-        <f t="array" ref="D27">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>23</v>
-      </c>
-      <c r="E27">
+      <c r="C27" cm="1">
+        <f t="array" ref="C27">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
+        <v>213.2</v>
+      </c>
+      <c r="D27">
         <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>33</v>
+        <v>219.2</v>
+      </c>
+      <c r="E27" t="str">
+        <f>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</f>
+        <v>213,2-219,2</v>
       </c>
       <c r="F27">
         <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>28</v>
+        <v>216.2</v>
       </c>
       <c r="G27">
         <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>0.26666666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="J27">
         <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>26.666666666666668</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="C28" s="21" cm="1">
-        <f t="array" ref="C28">ROW(4:4)</f>
+      <c r="B28" s="20" cm="1">
+        <f t="array" ref="B28">ROW(4:4)</f>
         <v>4</v>
       </c>
-      <c r="D28" cm="1">
-        <f t="array" ref="D28">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>33</v>
-      </c>
-      <c r="E28">
+      <c r="C28" cm="1">
+        <f t="array" ref="C28">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
+        <v>219.2</v>
+      </c>
+      <c r="D28">
         <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>43</v>
+        <v>225.2</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</f>
+        <v>219,2-225,2</v>
       </c>
       <c r="F28">
         <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>38</v>
+        <v>222.2</v>
       </c>
       <c r="G28">
         <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I28">
         <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>0.13333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="J28">
         <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>13.333333333333334</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="C29" s="21" cm="1">
-        <f t="array" ref="C29">ROW(5:5)</f>
+      <c r="B29" s="20" cm="1">
+        <f t="array" ref="B29">ROW(5:5)</f>
         <v>5</v>
       </c>
-      <c r="D29" cm="1">
-        <f t="array" ref="D29">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>43</v>
-      </c>
-      <c r="E29">
+      <c r="C29" cm="1">
+        <f t="array" ref="C29">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
+        <v>225.2</v>
+      </c>
+      <c r="D29">
         <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>53</v>
+        <v>231.2</v>
+      </c>
+      <c r="E29" t="str">
+        <f>Tabla27[[#This Row],[Li]]&amp;"-"&amp;Tabla27[[#This Row],[Ls]]</f>
+        <v>225,2-231,2</v>
       </c>
       <c r="F29">
         <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>48</v>
+        <v>228.2</v>
       </c>
       <c r="G29">
         <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I29">
         <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="J29">
         <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="C30" s="21" cm="1">
-        <f t="array" ref="C30">ROW(6:6)</f>
-        <v>6</v>
-      </c>
-      <c r="D30" cm="1">
-        <f t="array" ref="D30">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>53</v>
-      </c>
-      <c r="E30">
-        <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>63</v>
-      </c>
-      <c r="F30">
-        <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>58</v>
+      <c r="B30" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G30">
-        <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>58</v>
+        <f>SUBTOTAL(9,Tabla27[Fab])</f>
+        <v>25</v>
       </c>
       <c r="I30">
-        <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>6.6666666666666666E-2</v>
+        <f>SUBTOTAL(9,Tabla27[Fr])</f>
+        <v>1</v>
       </c>
       <c r="J30">
-        <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="C31" s="21" cm="1">
-        <f t="array" ref="C31">ROW(7:7)</f>
-        <v>7</v>
-      </c>
-      <c r="D31" cm="1">
-        <f t="array" ref="D31">IF(Tabla27[[#This Row],[Intervalo]]=1,MuestraMinimo-MuestraNuevoRango,INDEX(Tabla27[Ls],Tabla27[[#This Row],[Intervalo]]-1))</f>
-        <v>63</v>
-      </c>
-      <c r="E31">
-        <f>Tabla27[[#This Row],[Li]]+MuestraAmplitud</f>
-        <v>73</v>
-      </c>
-      <c r="F31">
-        <f>AVERAGE(Tabla27[[#This Row],[Li]],Tabla27[[#This Row],[Ls]])</f>
-        <v>68</v>
-      </c>
-      <c r="G31">
-        <f>COUNTIFS(MuestraDatos,"&gt;="&amp;Tabla27[[#This Row],[Li]],MuestraDatos,"&lt;"&amp;Tabla27[[#This Row],[Ls]])</f>
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <f>SUM(INDEX(Tabla27[Fab],1):Tabla27[[#This Row],[Fab]])</f>
-        <v>60</v>
-      </c>
-      <c r="I31">
-        <f>Tabla27[[#This Row],[Fab]]/MuestraCantidad</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J31">
-        <f>Tabla27[[#This Row],[Fr]]*100</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="C32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32">
-        <f>SUBTOTAL(9,Tabla27[Fab])</f>
-        <v>60</v>
-      </c>
-      <c r="I32">
-        <f>SUBTOTAL(9,Tabla27[Fr])</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J32">
         <f>SUBTOTAL(9,Tabla27[%])</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="22">
+        <f>COUNTIFS(MuestraDatos,"&lt;215")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="22">
+        <f>COUNTIFS(MuestraDatos,"&gt;220")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C00555C-561F-4E90-B45C-8429F5195FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47806EB-8A76-4416-8832-993D52703283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Circular" sheetId="5" r:id="rId1"/>
     <sheet name="Caja y Bigotes" sheetId="6" r:id="rId2"/>
     <sheet name="Tallos y Hojas" sheetId="7" r:id="rId3"/>
+    <sheet name="TEMPORAL" sheetId="8" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Caja y Bigotes'!$A$31:$A$38</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Caja y Bigotes'!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$A$5:$A$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Caja y Bigotes'!$B$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Caja y Bigotes'!$A$31:$A$38</definedName>
+    <definedName name="CyB_Ex1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
     <definedName name="EdadesDatos">[1]Video6!$B$2:$K$7</definedName>
     <definedName name="EdadesIntervalo">[1]Video6!$D$12</definedName>
@@ -70,8 +78,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Color</t>
   </si>
@@ -120,12 +150,42 @@
       <t>S</t>
     </r>
   </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Faa</t>
+  </si>
+  <si>
+    <t>Valor mínimo:</t>
+  </si>
+  <si>
+    <t>Primer cuartil (percentil 25):</t>
+  </si>
+  <si>
+    <t>Valor de la mediana (percentil 50):</t>
+  </si>
+  <si>
+    <t>Tercer cuartil (percentil 75):</t>
+  </si>
+  <si>
+    <t>Valor máximo:</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>fab</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +199,18 @@
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Victor Mono SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,13 +233,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Victor Mono SemiBold"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -289,6 +399,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -304,6 +419,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -319,6 +439,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -334,6 +459,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -349,6 +479,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -364,6 +499,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5B16-454D-83CE-39D1B7FE9BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -577,7 +717,610 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Edad de los estudiantes de un curso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Circular!$A$28:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Circular!$E$28:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1432-41DD-83B3-4EC3077DCF8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Edades de los amigos de Andrés</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Edades de los amigos de Andrés</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A82E3D8E-A853-414D-B0AE-99382B0E5E5D}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Edad</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="19" min="9"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B3E76657-838A-4389-BE33-1382510B9E71}">
+          <cx:dataLabels pos="r">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="23" min="12"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1136,19 +1879,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171456</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>104781</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171456</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1174,6 +3466,203 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88D4D19-6967-C37F-3713-EF68186FE677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F18F66-C413-D0F5-2B11-2F42C074384E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1562100" y="1938336"/>
+              <a:ext cx="3705225" cy="3357564"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346BB918-B366-F84A-8429-F7838C02D1A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="352425" y="9177337"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1608,11 +4097,59 @@
     <tableColumn id="1" xr3:uid="{A4549919-8512-48EF-9839-C006E8AD27F6}" name="Color" totalsRowLabel="Total S"/>
     <tableColumn id="2" xr3:uid="{BE4DB448-1D8E-4064-B5E5-1AFC976281C9}" name="f" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F8CB0739-11B3-4012-9D80-F8AC97986FE9}" name="fr" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{1B2A0CCF-10A2-4B9A-BBB6-D162CF437913}" name="%" totalsRowFunction="sum" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{1B2A0CCF-10A2-4B9A-BBB6-D162CF437913}" name="%" totalsRowFunction="sum" dataDxfId="8">
       <calculatedColumnFormula>Tabla1[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57E471FA-60EE-4622-B867-6D9DDEF36AFB}" name="Ángulo" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{57E471FA-60EE-4622-B867-6D9DDEF36AFB}" name="Ángulo" totalsRowFunction="sum" dataDxfId="7">
       <calculatedColumnFormula>Tabla1[[#This Row],[%]]*360/100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8FD2E66-226C-4068-936D-33715DA92E8B}" name="Tabla13" displayName="Tabla13" ref="A27:F34" totalsRowCount="1">
+  <autoFilter ref="A27:F33" xr:uid="{C8FD2E66-226C-4068-936D-33715DA92E8B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0110FFB7-2FC4-4A94-B6A6-B176942C8474}" name="Edad" totalsRowLabel="Total S"/>
+    <tableColumn id="2" xr3:uid="{A9D2CCC7-CF9B-4D43-AE85-1BDF6D66242A}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="6" xr3:uid="{08158144-D155-4A74-9ED7-6BAB137DCC0A}" name="Faa" dataDxfId="3">
+      <calculatedColumnFormula>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D104D125-0E7F-4040-B2D1-DEF56C4DE18A}" name="fr" totalsRowFunction="sum" dataDxfId="5">
+      <calculatedColumnFormula>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2544A3C3-1F62-4ADB-BB7F-FAEDAE75C140}" name="%" totalsRowFunction="sum" dataDxfId="6">
+      <calculatedColumnFormula>Tabla13[[#This Row],[fr]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{EB80D672-67F3-45CC-8C24-A38F19D0211A}" name="Ángulo" totalsRowFunction="sum" dataDxfId="4">
+      <calculatedColumnFormula>Tabla13[[#This Row],[%]]*3.6</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49CB66CE-5A6D-477E-8AAC-A512A12D2BE6}" name="Tabla3" displayName="Tabla3" ref="A4:B18" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E4DA34B2-9C6A-422B-9DA3-FB4755DF4526}" name="Niño" dataDxfId="1">
+      <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E43564F6-16D7-4FE9-ABC0-FBB2FB3C4F60}" name="Edad" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B397D35A-A4CA-4A7E-AFB6-7E1FC6789AC7}" name="Tabla4" displayName="Tabla4" ref="A30:C39" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AF66F9CF-2153-421D-9F2A-DA0F59FDA3B3}" name="Edad" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{E1580D4C-E35E-4D91-B563-4644C56E0BE6}" name="fab" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{EA7D0C59-CBD0-495A-8F51-2563FA770EA8}" name="Faa" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1916,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D64EED-C2CD-42AF-B602-4729890E2C20}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,25 +4613,940 @@
         <v>360</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E29">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F29">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E30">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F30">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E31">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F31">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</f>
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E33">
+        <f>Tabla13[[#This Row],[fr]]*100</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F33">
+        <f>Tabla13[[#This Row],[%]]*3.6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <f>SUBTOTAL(109,Tabla13[f])</f>
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <f>SUBTOTAL(109,Tabla13[fr])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E34">
+        <f>SUBTOTAL(109,Tabla13[%])</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F34">
+        <f>SUBTOTAL(109,Tabla13[Ángulo])</f>
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5FED8-2064-46C7-AF10-9585765DDED6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="9" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">ROW(1:1)</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>QUARTILE(CyB_Ex1,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">ROW(2:2)</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f>QUARTILE(CyB_Ex1,1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" cm="1">
+        <f t="array" ref="A7">ROW(3:3)</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <f>QUARTILE(CyB_Ex1,2)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">ROW(4:4)</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <f>QUARTILE(CyB_Ex1,3)</f>
+        <v>15.75</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">ROW(5:5)</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f>QUARTILE(CyB_Ex1,4)</f>
+        <v>18</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">ROW(6:6)</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" cm="1">
+        <f t="array" ref="A11">ROW(7:7)</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">ROW(8:8)</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" cm="1">
+        <f t="array" ref="A13">ROW(9:9)</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" cm="1">
+        <f t="array" ref="A14">ROW(10:10)</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" cm="1">
+        <f t="array" ref="A15">ROW(11:11)</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" cm="1">
+        <f t="array" ref="A16">ROW(12:12)</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" cm="1">
+        <f t="array" ref="A17">ROW(13:13)</f>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" cm="1">
+        <f t="array" ref="A18">ROW(14:14)</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>4</v>
+      </c>
+      <c r="E31" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">13; 13; 13; 13; </v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>10</v>
+      </c>
+      <c r="E32" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">14; 14; 14; 14; 14; 14; </v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>17</v>
+      </c>
+      <c r="E33" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">15; 15; 15; 15; 15; 15; 15; </v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">16; 16; 16; 16; 16; 16; 16; 16; </v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>38</v>
+      </c>
+      <c r="E35" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>45</v>
+      </c>
+      <c r="E36" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">18; 18; 18; 18; 18; 18; 18; </v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>49</v>
+      </c>
+      <c r="E37" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">19; 19; 19; 19; </v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
+        <v>50</v>
+      </c>
+      <c r="E38" t="str">
+        <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
+        <v xml:space="preserve">22; </v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <f>SUBTOTAL(109,Tabla4[fab])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.QUARTILE.INC(Tabla4[Edad],0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,1)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,2)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,3)</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.QUARTILE.INC(Tabla4[Edad],4)</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B18">
+    <sortCondition ref="B5:B18"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2108,4 +5560,185 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47806EB-8A76-4416-8832-993D52703283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E797E83-8234-4058-AE1F-13554FDF79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="10500" yWindow="0" windowWidth="9900" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Circular" sheetId="5" r:id="rId1"/>
@@ -23,11 +23,11 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Caja y Bigotes'!$A$31:$A$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Caja y Bigotes'!$A$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$A$5:$A$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TEMPORAL!$A$1:$A$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TEMPORAL!$A:$A</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Caja y Bigotes'!$B$4</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Caja y Bigotes'!$A$31:$A$38</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">TEMPORAL!$C$1:$C$50</definedName>
     <definedName name="CyB_Ex1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
     <definedName name="EdadesDatos">[1]Video6!$B$2:$K$7</definedName>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Color</t>
   </si>
@@ -180,12 +180,90 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Posición:</t>
+  </si>
+  <si>
+    <t>Kn/4</t>
+  </si>
+  <si>
+    <t>PQ1</t>
+  </si>
+  <si>
+    <t>PQ2</t>
+  </si>
+  <si>
+    <t>PQ3</t>
+  </si>
+  <si>
+    <t>&lt; Coincide con la mediana</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>1er Cuartil</t>
+  </si>
+  <si>
+    <t>2do Cuartil</t>
+  </si>
+  <si>
+    <t>3er Cuartil</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Datos atípicos leves:</t>
+  </si>
+  <si>
+    <t>Datos atípicos extremos:</t>
+  </si>
+  <si>
+    <t>Fmax:</t>
+  </si>
+  <si>
+    <t>Fmin:</t>
+  </si>
+  <si>
+    <t>Q1-1,5RI</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>7-4,5</t>
+  </si>
+  <si>
+    <t>10+4,5</t>
+  </si>
+  <si>
+    <t>Nada que marcar en el gráfico</t>
+  </si>
+  <si>
+    <t>Q1-3RI</t>
+  </si>
+  <si>
+    <t>Q3+1,5RI</t>
+  </si>
+  <si>
+    <t>Q3+3RI</t>
+  </si>
+  <si>
+    <t>10 más 9</t>
+  </si>
+  <si>
+    <t>7 menos 9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +290,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Victor Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,15 +333,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -265,6 +372,9 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -808,6 +918,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -823,6 +938,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -838,6 +958,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -853,6 +978,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -868,6 +998,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -883,6 +1018,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4729-43AF-A278-404CC3805285}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1167,7 +1307,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1176,9 +1316,49 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{B3E76657-838A-4389-BE33-1382510B9E71}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Desglosada</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:dataLabels pos="r">
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="23" min="12"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D5F148FF-5BDD-4EBA-BF61-01193E432368}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
@@ -1191,7 +1371,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="23" min="12"/>
+        <cx:valScaling max="13" min="5"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1360,6 +1540,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2914,6 +3134,521 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3663,6 +4398,84 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D41C07-BE3F-4536-96D1-DDEB6C29031C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="14516100"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-AR" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4097,10 +4910,10 @@
     <tableColumn id="1" xr3:uid="{A4549919-8512-48EF-9839-C006E8AD27F6}" name="Color" totalsRowLabel="Total S"/>
     <tableColumn id="2" xr3:uid="{BE4DB448-1D8E-4064-B5E5-1AFC976281C9}" name="f" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{F8CB0739-11B3-4012-9D80-F8AC97986FE9}" name="fr" totalsRowFunction="sum"/>
-    <tableColumn id="4" xr3:uid="{1B2A0CCF-10A2-4B9A-BBB6-D162CF437913}" name="%" totalsRowFunction="sum" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{1B2A0CCF-10A2-4B9A-BBB6-D162CF437913}" name="%" totalsRowFunction="sum" dataDxfId="9">
       <calculatedColumnFormula>Tabla1[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{57E471FA-60EE-4622-B867-6D9DDEF36AFB}" name="Ángulo" totalsRowFunction="sum" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{57E471FA-60EE-4622-B867-6D9DDEF36AFB}" name="Ángulo" totalsRowFunction="sum" dataDxfId="8">
       <calculatedColumnFormula>Tabla1[[#This Row],[%]]*360/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4114,13 +4927,13 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0110FFB7-2FC4-4A94-B6A6-B176942C8474}" name="Edad" totalsRowLabel="Total S"/>
     <tableColumn id="2" xr3:uid="{A9D2CCC7-CF9B-4D43-AE85-1BDF6D66242A}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{08158144-D155-4A74-9ED7-6BAB137DCC0A}" name="Faa" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{08158144-D155-4A74-9ED7-6BAB137DCC0A}" name="Faa" dataDxfId="7">
       <calculatedColumnFormula>SUM(INDEX(Tabla13[f],1):Tabla13[[#This Row],[f]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D104D125-0E7F-4040-B2D1-DEF56C4DE18A}" name="fr" totalsRowFunction="sum" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{D104D125-0E7F-4040-B2D1-DEF56C4DE18A}" name="fr" totalsRowFunction="sum" dataDxfId="6">
       <calculatedColumnFormula>Tabla13[[#This Row],[f]]/Tabla13[[#Totals],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2544A3C3-1F62-4ADB-BB7F-FAEDAE75C140}" name="%" totalsRowFunction="sum" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{2544A3C3-1F62-4ADB-BB7F-FAEDAE75C140}" name="%" totalsRowFunction="sum" dataDxfId="5">
       <calculatedColumnFormula>Tabla13[[#This Row],[fr]]*100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{EB80D672-67F3-45CC-8C24-A38F19D0211A}" name="Ángulo" totalsRowFunction="sum" dataDxfId="4">
@@ -4134,7 +4947,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49CB66CE-5A6D-477E-8AAC-A512A12D2BE6}" name="Tabla3" displayName="Tabla3" ref="A4:B18" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E4DA34B2-9C6A-422B-9DA3-FB4755DF4526}" name="Niño" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E4DA34B2-9C6A-422B-9DA3-FB4755DF4526}" name="Niño" dataDxfId="3">
       <calculatedColumnFormula array="1">ROW(1:1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E43564F6-16D7-4FE9-ABC0-FBB2FB3C4F60}" name="Edad" dataDxfId="2"/>
@@ -4148,8 +4961,21 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AF66F9CF-2153-421D-9F2A-DA0F59FDA3B3}" name="Edad" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E1580D4C-E35E-4D91-B563-4644C56E0BE6}" name="fab" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{EA7D0C59-CBD0-495A-8F51-2563FA770EA8}" name="Faa" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{EA7D0C59-CBD0-495A-8F51-2563FA770EA8}" name="Faa" dataDxfId="1">
       <calculatedColumnFormula>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D024D791-149B-4B06-B7E2-EF95CBC1B99C}" name="Tabla46" displayName="Tabla46" ref="A65:C73" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9E5A2FAB-530B-4E64-81FD-46C6F1682EA2}" name="Horas" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F6E67A36-8329-4A69-9CCF-2FF86DB5040A}" name="fab" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{BC559546-B02C-4D08-9B06-A6E26819E11B}" name="Faa" dataDxfId="0">
+      <calculatedColumnFormula>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -4453,6 +5279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D64EED-C2CD-42AF-B602-4729890E2C20}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
@@ -4811,15 +5638,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5FED8-2064-46C7-AF10-9585765DDED6}">
-  <dimension ref="A1:U46"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5354,7 +6183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -5365,12 +6194,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>4</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">13; 13; 13; 13; </v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -5381,12 +6210,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>10</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">14; 14; 14; 14; 14; 14; </v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -5397,12 +6226,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>17</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">15; 15; 15; 15; 15; 15; 15; </v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -5413,12 +6242,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>25</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">16; 16; 16; 16; 16; 16; 16; 16; </v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
@@ -5429,12 +6258,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>38</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; </v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -5445,12 +6274,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>45</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">18; 18; 18; 18; 18; 18; 18; </v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19</v>
       </c>
@@ -5461,12 +6290,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>49</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">19; 19; 19; 19; </v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
@@ -5477,12 +6306,12 @@
         <f>SUM(INDEX(Tabla4[fab],1):Tabla4[[#This Row],[fab]])</f>
         <v>50</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="3" t="str">
         <f>REPT(Tabla4[[#This Row],[Edad]]&amp;"; ",Tabla4[[#This Row],[fab]])</f>
         <v xml:space="preserve">22; </v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -5491,7 +6320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -5499,35 +6328,62 @@
         <f>_xlfn.QUARTILE.INC(Tabla4[Edad],0)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E43">
-        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,1)</f>
+      <c r="E43" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43">
+        <f>1*50/4</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E44">
-        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,2)</f>
+      <c r="E44" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <f>2*50/4</f>
+        <v>25</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E45">
-        <f>_xlfn.QUARTILE.EXC(TEMPORAL!$A$1:$M$8,3)</f>
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="4">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45">
+        <f>3*50/4</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -5535,23 +6391,313 @@
         <f>_xlfn.QUARTILE.INC(Tabla4[Edad],4)</f>
         <v>22</v>
       </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>3</v>
+      </c>
+      <c r="E66" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>6;6;6;</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66">
+        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,0)</f>
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>11</v>
+      </c>
+      <c r="E67" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>7;7;7;7;7;7;7;7;</v>
+      </c>
+      <c r="H67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,1)</f>
+        <v>7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67">
+        <f>1*40/4</f>
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>22</v>
+      </c>
+      <c r="E68" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>8;8;8;8;8;8;8;8;8;8;8;</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68">
+        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,2)</f>
+        <v>8</v>
+      </c>
+      <c r="L68" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68">
+        <f>2*40/4</f>
+        <v>20</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>29</v>
+      </c>
+      <c r="E69" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>9;9;9;9;9;9;9;</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69">
+        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,3)</f>
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69">
+        <f>3*40/4</f>
+        <v>30</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>35</v>
+      </c>
+      <c r="E70" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>10;10;10;10;10;10;</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70">
+        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>39</v>
+      </c>
+      <c r="E71" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>11;11;11;11;</v>
+      </c>
+      <c r="M71" t="s">
+        <v>39</v>
+      </c>
+      <c r="N71">
+        <f>N69-N67</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f>SUM(INDEX(Tabla46[fab],1):Tabla46[[#This Row],[fab]])</f>
+        <v>40</v>
+      </c>
+      <c r="E72" t="str">
+        <f>REPT(Tabla46[[#This Row],[Horas]]&amp;";",Tabla46[[#This Row],[fab]])</f>
+        <v>12;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73">
+        <f>SUBTOTAL(109,Tabla46[fab])</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" t="s">
+        <v>40</v>
+      </c>
+      <c r="N77">
+        <v>2.5</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" t="s">
+        <v>41</v>
+      </c>
+      <c r="N78">
+        <v>14.5</v>
+      </c>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>37</v>
+      </c>
+      <c r="L84" t="s">
+        <v>43</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84">
+        <v>-2</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" t="s">
+        <v>46</v>
+      </c>
+      <c r="N85">
+        <v>19</v>
+      </c>
+      <c r="O85" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B18">
     <sortCondition ref="B5:B18"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="O84:O85"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C8B7E-109F-4BBA-B65F-6B34664AA6CF}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5564,177 +6710,502 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
-  <dimension ref="A1:M8"/>
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C20" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>13</v>
       </c>
-      <c r="B1">
+      <c r="C1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>13</v>
       </c>
-      <c r="C1">
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>13</v>
       </c>
-      <c r="D1">
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>16</v>
       </c>
-      <c r="H4">
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="C28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="C29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>17</v>
       </c>
-      <c r="I5">
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>17</v>
       </c>
-      <c r="J5">
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>17</v>
       </c>
-      <c r="K5">
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>17</v>
       </c>
-      <c r="L5">
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>17</v>
       </c>
-      <c r="M5">
+      <c r="C37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="C39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="C40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>18</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>18</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>18</v>
       </c>
-      <c r="F6">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>18</v>
       </c>
-      <c r="G6">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>19</v>
       </c>
-      <c r="B7">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>19</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>22</v>
       </c>
     </row>

--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E797E83-8234-4058-AE1F-13554FDF79EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B06C7B-E535-47E8-9CF1-E9757BD8CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="0" windowWidth="9900" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Circular" sheetId="5" r:id="rId1"/>
     <sheet name="Caja y Bigotes" sheetId="6" r:id="rId2"/>
     <sheet name="Tallos y Hojas" sheetId="7" r:id="rId3"/>
-    <sheet name="TEMPORAL" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="TMP" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Caja y Bigotes'!$A$31:$A$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">TEMPORAL!$A$1:$A$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">TEMPORAL!$A:$A</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Caja y Bigotes'!$B$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">TEMPORAL!$C$1:$C$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">TMP!$A:$A</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TMP!$C$1:$C$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$B$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="CyB_Ex1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
     <definedName name="EdadesDatos">[1]Video6!$B$2:$K$7</definedName>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Color</t>
   </si>
@@ -258,12 +258,24 @@
   <si>
     <t>7 menos 9</t>
   </si>
+  <si>
+    <t>Customer Age</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Leaf Position</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,16 +324,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -329,21 +361,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,12 +1297,1454 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Age</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1700" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Breakdown of Customers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1700" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27462026488473018"/>
+          <c:y val="1.5776592653873239E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13375722589890987"/>
+          <c:y val="0.16853110436119842"/>
+          <c:w val="0.82734449221454676"/>
+          <c:h val="0.72395271651081139"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10B4505F-B14B-40BC-964B-6BC05DE07A2E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5070D1D9-5B3B-4EB4-B7F8-315BA7B60AB3}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF3EF23F-71F0-4D5A-B6AE-C68F1BEDC9CC}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E64F037E-2FF6-4387-AC96-6A26B6BFEDDF}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1D66253-BDBB-42FE-AA66-4076CBC4DB79}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1C908144-3D2C-4758-AC6B-B4CB24AE70C1}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{367BC09D-037F-43E8-8697-19AE321EA881}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D8EB39A-3E66-458D-A2F7-4157FE4DE10D}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0A9C0DB3-E12C-412E-B76B-C6E7B3171AE9}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87150307-9C71-4552-B735-A80420CFAD0A}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3B1F402-86A1-4C2E-A1F4-1F4F4F266992}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4947C0AF-3CFA-4CB9-9609-DEA2713C8C59}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3FE4DC34-0A33-4ABA-8FE9-BBCFB4FA6E17}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6049770-3948-4413-8CF6-8E51584B3EDB}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B8146D8-133D-4A27-93E8-6297A4239871}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{307E8151-A6C5-4993-A58E-5803B9322019}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{886F68CB-F1FC-4C08-98D7-92E2E527E60E}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{06276639-89F8-4CF7-9281-8E756FFAA810}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C2ECC767-913F-44E5-90D0-CA674927FF65}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A691D411-3BFC-4FB5-82E2-756E8ADE651C}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C9C69B1-6DA4-45CE-A4FF-AC4727F269D4}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CEF01F40-CF8A-42AA-A405-7D804CBAC6C8}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{73B5B294-CDE0-4D7E-89E2-833DBCE5FBB3}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{264E8C5E-42A0-4BE8-A5EF-46EEBFF82EAB}" type="CELLRANGE">
+                      <a:rPr lang="es-AR"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="es-AR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-3255-4CE3-A836-580613E95086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$D$2:$D$25</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-3255-4CE3-A836-580613E95086}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1080583680"/>
+        <c:axId val="1171962480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1080583680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Leaves</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47416854979814421"/>
+              <c:y val="0.10609259018165051"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1171962480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171962480"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Stem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080583680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1273,7 +2782,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A82E3D8E-A853-414D-B0AE-99382B0E5E5D}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Edad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1307,7 +2816,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1318,6 +2827,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B3E76657-838A-4389-BE33-1382510B9E71}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Desglosada</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1350,7 +2860,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1580,6 +3090,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4159,6 +5709,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4367,7 +6433,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="352425" y="9177337"/>
+              <a:off x="352425" y="9253537"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4479,6 +6545,190 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>805205</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EAF503-7632-4C36-B78B-65353EE08BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.32199</cdr:x>
+      <cdr:y>0.90198</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78105</cdr:x>
+      <cdr:y>0.99642</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01826E4A-D23F-42F7-952C-DB190F064884}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1640815" y="3639104"/>
+          <a:ext cx="2339340" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.26374</cdr:x>
+      <cdr:y>0.92256</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87683</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC00994-5A2F-463B-B8EA-90C55C993B74}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1333112" y="3746957"/>
+          <a:ext cx="3098872" cy="314503"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Key:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>1 |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>represents the age of 15</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4898,6 +7148,284 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>3</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>3</v>
+          </cell>
+          <cell r="E5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="E6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="E7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>3</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>3</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>3</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>3</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>2</v>
+          </cell>
+          <cell r="E14">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>3</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="E16">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>3</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="E17">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>4</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>4</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>4</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>4</v>
+          </cell>
+          <cell r="E20">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>4</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="E21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>6</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>6</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>6</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5641,7 +8169,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
@@ -6422,7 +8950,7 @@
         <v>29</v>
       </c>
       <c r="J66">
-        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,0)</f>
+        <f>_xlfn.QUARTILE.INC(TMP!C:C,0)</f>
         <v>6</v>
       </c>
       <c r="L66" t="s">
@@ -6451,7 +8979,7 @@
         <v>30</v>
       </c>
       <c r="J67">
-        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,1)</f>
+        <f>_xlfn.QUARTILE.INC(TMP!C:C,1)</f>
         <v>7</v>
       </c>
       <c r="L67" t="s">
@@ -6484,7 +9012,7 @@
         <v>31</v>
       </c>
       <c r="J68">
-        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,2)</f>
+        <f>_xlfn.QUARTILE.INC(TMP!C:C,2)</f>
         <v>8</v>
       </c>
       <c r="L68" t="s">
@@ -6517,7 +9045,7 @@
         <v>32</v>
       </c>
       <c r="J69">
-        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,3)</f>
+        <f>_xlfn.QUARTILE.INC(TMP!C:C,3)</f>
         <v>10</v>
       </c>
       <c r="L69" t="s">
@@ -6550,7 +9078,7 @@
         <v>33</v>
       </c>
       <c r="J70">
-        <f>_xlfn.QUARTILE.INC(TEMPORAL!C:C,4)</f>
+        <f>_xlfn.QUARTILE.INC(TMP!C:C,4)</f>
         <v>12</v>
       </c>
     </row>
@@ -6620,7 +9148,7 @@
       <c r="N77">
         <v>2.5</v>
       </c>
-      <c r="O77" s="6" t="s">
+      <c r="O77" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6637,7 +9165,7 @@
       <c r="N78">
         <v>14.5</v>
       </c>
-      <c r="O78" s="6"/>
+      <c r="O78" s="7"/>
     </row>
     <row r="83" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J83" t="s">
@@ -6651,13 +9179,13 @@
       <c r="L84" t="s">
         <v>43</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="M84" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N84">
         <v>-2</v>
       </c>
-      <c r="O84" s="6" t="s">
+      <c r="O84" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6674,7 +9202,7 @@
       <c r="N85">
         <v>19</v>
       </c>
-      <c r="O85" s="6"/>
+      <c r="O85" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B18">
@@ -6698,17 +9226,551 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C8B7E-109F-4BBA-B65F-6B34664AA6CF}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>38</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35BC02-63B9-46CF-A292-10D0519F53B3}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>VALUE(LEFT(A2,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>RIGHT(A2,1)</f>
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF($C$2:C2,C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="0">VALUE(LEFT(A3,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D25" si="1">RIGHT(A3,1)</f>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF($C$2:C3,C3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF($C$2:C4,C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF($C$2:C5,C5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF($C$2:C6,C6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF($C$2:C7,C7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF($C$2:C8,C8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF($C$2:C9,C9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIF($C$2:C10,C10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF($C$2:C11,C11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF($C$2:C12,C12)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF($C$2:C13,C13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF($C$2:C14,C14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF($C$2:C15,C15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF($C$2:C16,C16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF($C$2:C17,C17)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF($C$2:C18,C18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF($C$2:C19,C19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF($C$2:C20,C20)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIF($C$2:C21,C21)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIF($C$2:C22,C22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIF($C$2:C23,C23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIF($C$2:C24,C24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIF($C$2:C25,C25)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O50"/>

--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B06C7B-E535-47E8-9CF1-E9757BD8CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2913A-A7F3-41D3-8A05-EC0F631430BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Circular" sheetId="5" r:id="rId1"/>
@@ -21,13 +21,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">TMP!$A:$A</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">TMP!$C$1:$C$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$B$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Caja y Bigotes'!$B$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TMP!$C$1:$C$50</definedName>
     <definedName name="CyB_Ex1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
     <definedName name="EdadesDatos">[1]Video6!$B$2:$K$7</definedName>
@@ -55,6 +54,7 @@
     <definedName name="MuestraMinimo">#REF!</definedName>
     <definedName name="MuestraNuevoRango">#REF!</definedName>
     <definedName name="MuestraRango">#REF!</definedName>
+    <definedName name="TodosLosDatos">TMP!$F$20:$O$29</definedName>
     <definedName name="VelocidadAmplitud">#REF!</definedName>
     <definedName name="VelocidadDatos">#REF!</definedName>
     <definedName name="VelocidadMinima">#REF!</definedName>
@@ -79,9 +79,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -92,16 +93,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="144">
   <si>
     <t>Color</t>
   </si>
@@ -270,12 +285,288 @@
   <si>
     <t>Leaf Position</t>
   </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>18.32</t>
+  </si>
+  <si>
+    <t>20.07</t>
+  </si>
+  <si>
+    <t>22.38</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>11.32</t>
+  </si>
+  <si>
+    <t>13.37</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>17.02</t>
+  </si>
+  <si>
+    <t>18.37</t>
+  </si>
+  <si>
+    <t>20.20</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>11.37</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>17.07</t>
+  </si>
+  <si>
+    <t>18.50</t>
+  </si>
+  <si>
+    <t>20.32</t>
+  </si>
+  <si>
+    <t>6.37</t>
+  </si>
+  <si>
+    <t>8.02</t>
+  </si>
+  <si>
+    <t>9.32</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>15.37</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>19.02</t>
+  </si>
+  <si>
+    <t>20.37</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>19.07</t>
+  </si>
+  <si>
+    <t>20.50</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>12.32</t>
+  </si>
+  <si>
+    <t>14.20</t>
+  </si>
+  <si>
+    <t>16.02</t>
+  </si>
+  <si>
+    <t>17.37</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>8.24</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>12.37</t>
+  </si>
+  <si>
+    <t>14.32</t>
+  </si>
+  <si>
+    <t>16.07</t>
+  </si>
+  <si>
+    <t>17.50</t>
+  </si>
+  <si>
+    <t>19.32</t>
+  </si>
+  <si>
+    <t>21.07</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>14.37</t>
+  </si>
+  <si>
+    <t>16.20</t>
+  </si>
+  <si>
+    <t>18.02</t>
+  </si>
+  <si>
+    <t>19.37</t>
+  </si>
+  <si>
+    <t>21.20</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>10.37</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>16.32</t>
+  </si>
+  <si>
+    <t>18.07</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>21.32</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>8.51</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>16.37</t>
+  </si>
+  <si>
+    <t>18.20</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>21.37</t>
+  </si>
+  <si>
+    <t>Datos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,9 +692,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,7 +1715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10B4505F-B14B-40BC-964B-6BC05DE07A2E}" type="CELLRANGE">
+                    <a:fld id="{4FF000C9-9209-4BCC-8D96-4AD18D0A9D4C}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1457,7 +1748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5070D1D9-5B3B-4EB4-B7F8-315BA7B60AB3}" type="CELLRANGE">
+                    <a:fld id="{E468F5E9-B42B-4BA5-AC16-A78250663A1C}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1490,7 +1781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF3EF23F-71F0-4D5A-B6AE-C68F1BEDC9CC}" type="CELLRANGE">
+                    <a:fld id="{AFE35AEA-4062-41EC-BDB3-CF344DD66B8D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1523,7 +1814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E64F037E-2FF6-4387-AC96-6A26B6BFEDDF}" type="CELLRANGE">
+                    <a:fld id="{819D125E-43DD-4F4D-A7DB-7390C08A516A}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1556,7 +1847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1D66253-BDBB-42FE-AA66-4076CBC4DB79}" type="CELLRANGE">
+                    <a:fld id="{CBBCE25E-83A5-43F6-9501-D6282D998E9D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1589,7 +1880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C908144-3D2C-4758-AC6B-B4CB24AE70C1}" type="CELLRANGE">
+                    <a:fld id="{43B7F2BF-A0D5-4929-8114-D45929B5BEE8}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1622,7 +1913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{367BC09D-037F-43E8-8697-19AE321EA881}" type="CELLRANGE">
+                    <a:fld id="{6CD68239-74E9-44C4-8C96-1435B864FBD3}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1655,7 +1946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D8EB39A-3E66-458D-A2F7-4157FE4DE10D}" type="CELLRANGE">
+                    <a:fld id="{68FB4888-695D-455F-AE24-C60E6DAF1008}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1688,7 +1979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A9C0DB3-E12C-412E-B76B-C6E7B3171AE9}" type="CELLRANGE">
+                    <a:fld id="{A0F36D69-D154-4ECE-982A-7853F5689D42}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1721,7 +2012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87150307-9C71-4552-B735-A80420CFAD0A}" type="CELLRANGE">
+                    <a:fld id="{4BCF7BAE-E1B7-4379-978F-435C532C407C}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1754,7 +2045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3B1F402-86A1-4C2E-A1F4-1F4F4F266992}" type="CELLRANGE">
+                    <a:fld id="{446A66DB-A8BB-4673-8B18-2DE251532075}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1787,7 +2078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4947C0AF-3CFA-4CB9-9609-DEA2713C8C59}" type="CELLRANGE">
+                    <a:fld id="{81227C36-5994-4FD8-9A0F-4C970443F464}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1820,7 +2111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FE4DC34-0A33-4ABA-8FE9-BBCFB4FA6E17}" type="CELLRANGE">
+                    <a:fld id="{05715539-6D83-45F7-AB52-F9695696AD89}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1853,7 +2144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6049770-3948-4413-8CF6-8E51584B3EDB}" type="CELLRANGE">
+                    <a:fld id="{A8F99102-8DD9-4C4F-9C49-925F9D72000D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1886,7 +2177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B8146D8-133D-4A27-93E8-6297A4239871}" type="CELLRANGE">
+                    <a:fld id="{E25DBA24-1A02-4DD5-BAE5-5CBF970B542F}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1919,7 +2210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{307E8151-A6C5-4993-A58E-5803B9322019}" type="CELLRANGE">
+                    <a:fld id="{63815013-11C7-4FFB-8014-FA6872FA005D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1952,7 +2243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{886F68CB-F1FC-4C08-98D7-92E2E527E60E}" type="CELLRANGE">
+                    <a:fld id="{AB8600A2-E2B9-4C5A-A441-1412B9841F7A}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1985,7 +2276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06276639-89F8-4CF7-9281-8E756FFAA810}" type="CELLRANGE">
+                    <a:fld id="{5B72CA59-015E-4C20-9AEC-058283F55D25}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2018,7 +2309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2ECC767-913F-44E5-90D0-CA674927FF65}" type="CELLRANGE">
+                    <a:fld id="{99BBA0A0-9CBC-42A7-AE25-4E626B11F475}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2051,7 +2342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A691D411-3BFC-4FB5-82E2-756E8ADE651C}" type="CELLRANGE">
+                    <a:fld id="{4C4F087F-0503-4A15-BBBF-347DB59E497E}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2084,7 +2375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C9C69B1-6DA4-45CE-A4FF-AC4727F269D4}" type="CELLRANGE">
+                    <a:fld id="{C0B61598-E8B9-4154-8DB0-4A935F413B18}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2117,7 +2408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEF01F40-CF8A-42AA-A405-7D804CBAC6C8}" type="CELLRANGE">
+                    <a:fld id="{6AE173BE-D80C-48F2-A015-4D81FA2C156B}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2150,7 +2441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73B5B294-CDE0-4D7E-89E2-833DBCE5FBB3}" type="CELLRANGE">
+                    <a:fld id="{C4E58F7C-5748-4048-91FA-63791D872732}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2183,7 +2474,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{264E8C5E-42A0-4BE8-A5EF-46EEBFF82EAB}" type="CELLRANGE">
+                    <a:fld id="{49ADE3E1-8676-4B1C-8A94-2BB41F46670D}" type="CELLRANGE">
                       <a:rPr lang="es-AR"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2744,7 +3035,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2782,7 +3073,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A82E3D8E-A853-414D-B0AE-99382B0E5E5D}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Edad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2860,7 +3151,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6355,7 +6646,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1562100" y="1938336"/>
+              <a:off x="1562100" y="1919286"/>
               <a:ext cx="3705225" cy="3357564"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6433,7 +6724,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="352425" y="9253537"/>
+              <a:off x="352425" y="9234487"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6511,7 +6802,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="14516100"/>
+              <a:off x="0" y="14497050"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7153,282 +7444,66 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>1</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>1</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>9</v>
-          </cell>
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>2</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>3</v>
-          </cell>
-          <cell r="E4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>2</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>3</v>
-          </cell>
-          <cell r="E5">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="E6">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="E7">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E8">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>2</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E9">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>3</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>3</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>3</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>3</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>3</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>2</v>
-          </cell>
-          <cell r="E14">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>3</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>3</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="E16">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>3</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>7</v>
-          </cell>
-          <cell r="E17">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>4</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>4</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E19">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>4</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>4</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>4</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>5</v>
-          </cell>
-          <cell r="E21">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>4</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="E22">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>6</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>6</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E24">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>6</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>3</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7507,6 +7582,17 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B730A45C-61E1-4877-B205-2491A776A963}" name="Tabla6" displayName="Tabla6" ref="Q20:Q21" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A97DF1E5-2B91-402A-86C2-D8F0889D67B8}" name="Datos">
+      <calculatedColumnFormula array="1">INDEX(TodosLosDatos,ROW($1:4)/4,MODulo(ROW($1:1)-1,4)+1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7814,9 +7900,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7833,7 +7919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7852,7 +7938,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7871,7 +7957,7 @@
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -7890,7 +7976,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7909,7 +7995,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7928,7 +8014,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7947,7 +8033,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -7968,7 +8054,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -7988,7 +8074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>13</v>
       </c>
@@ -8012,7 +8098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>14</v>
       </c>
@@ -8036,7 +8122,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>15</v>
       </c>
@@ -8060,7 +8146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>16</v>
       </c>
@@ -8084,7 +8170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>17</v>
       </c>
@@ -8108,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>18</v>
       </c>
@@ -8132,7 +8218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -8173,13 +8259,13 @@
       <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="9" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="B1" s="2"/>
       <c r="C1" s="2">
         <v>11</v>
@@ -8203,7 +8289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>11</v>
@@ -8227,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -8235,7 +8321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" cm="1">
         <f t="array" ref="A5">ROW(1:1)</f>
         <v>1</v>
@@ -8268,7 +8354,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75">
       <c r="A6" cm="1">
         <f t="array" ref="A6">ROW(2:2)</f>
         <v>2</v>
@@ -8301,7 +8387,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75">
       <c r="A7" cm="1">
         <f t="array" ref="A7">ROW(3:3)</f>
         <v>3</v>
@@ -8334,7 +8420,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75">
       <c r="A8" cm="1">
         <f t="array" ref="A8">ROW(4:4)</f>
         <v>4</v>
@@ -8367,7 +8453,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" cm="1">
         <f t="array" ref="A9">ROW(5:5)</f>
         <v>5</v>
@@ -8400,7 +8486,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75">
       <c r="A10" cm="1">
         <f t="array" ref="A10">ROW(6:6)</f>
         <v>6</v>
@@ -8427,7 +8513,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75">
       <c r="A11" cm="1">
         <f t="array" ref="A11">ROW(7:7)</f>
         <v>7</v>
@@ -8454,7 +8540,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75">
       <c r="A12" cm="1">
         <f t="array" ref="A12">ROW(8:8)</f>
         <v>8</v>
@@ -8481,7 +8567,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75">
       <c r="A13" cm="1">
         <f t="array" ref="A13">ROW(9:9)</f>
         <v>9</v>
@@ -8508,7 +8594,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75">
       <c r="A14" cm="1">
         <f t="array" ref="A14">ROW(10:10)</f>
         <v>10</v>
@@ -8535,7 +8621,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75">
       <c r="A15" cm="1">
         <f t="array" ref="A15">ROW(11:11)</f>
         <v>11</v>
@@ -8562,7 +8648,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75">
       <c r="A16" cm="1">
         <f t="array" ref="A16">ROW(12:12)</f>
         <v>12</v>
@@ -8589,7 +8675,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15.75">
       <c r="A17" cm="1">
         <f t="array" ref="A17">ROW(13:13)</f>
         <v>13</v>
@@ -8616,7 +8702,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15.75">
       <c r="A18" cm="1">
         <f t="array" ref="A18">ROW(14:14)</f>
         <v>14</v>
@@ -8643,7 +8729,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -8662,7 +8748,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8681,7 +8767,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -8700,7 +8786,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -8711,7 +8797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75">
       <c r="A31">
         <v>13</v>
       </c>
@@ -8727,7 +8813,7 @@
         <v xml:space="preserve">13; 13; 13; 13; </v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75">
       <c r="A32">
         <v>14</v>
       </c>
@@ -8743,7 +8829,7 @@
         <v xml:space="preserve">14; 14; 14; 14; 14; 14; </v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33">
         <v>15</v>
       </c>
@@ -8759,7 +8845,7 @@
         <v xml:space="preserve">15; 15; 15; 15; 15; 15; 15; </v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34">
         <v>16</v>
       </c>
@@ -8775,7 +8861,7 @@
         <v xml:space="preserve">16; 16; 16; 16; 16; 16; 16; 16; </v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35">
         <v>17</v>
       </c>
@@ -8791,7 +8877,7 @@
         <v xml:space="preserve">17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; </v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36">
         <v>18</v>
       </c>
@@ -8807,7 +8893,7 @@
         <v xml:space="preserve">18; 18; 18; 18; 18; 18; 18; </v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37">
         <v>19</v>
       </c>
@@ -8823,7 +8909,7 @@
         <v xml:space="preserve">19; 19; 19; 19; </v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38">
         <v>22</v>
       </c>
@@ -8839,7 +8925,7 @@
         <v xml:space="preserve">22; </v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -8848,7 +8934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -8863,7 +8949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -8878,7 +8964,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -8896,7 +8982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -8911,7 +8997,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -8920,7 +9006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -8931,7 +9017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>6</v>
       </c>
@@ -8960,7 +9046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>7</v>
       </c>
@@ -8993,7 +9079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>8</v>
       </c>
@@ -9026,7 +9112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>9</v>
       </c>
@@ -9059,7 +9145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>10</v>
       </c>
@@ -9082,7 +9168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>11</v>
       </c>
@@ -9105,7 +9191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>12</v>
       </c>
@@ -9121,7 +9207,7 @@
         <v>12;</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -9130,12 +9216,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="J76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="K77" t="s">
         <v>37</v>
       </c>
@@ -9148,11 +9234,11 @@
       <c r="N77">
         <v>2.5</v>
       </c>
-      <c r="O77" s="7" t="s">
+      <c r="O77" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="K78" t="s">
         <v>36</v>
       </c>
@@ -9165,14 +9251,14 @@
       <c r="N78">
         <v>14.5</v>
       </c>
-      <c r="O78" s="7"/>
-    </row>
-    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="12"/>
+    </row>
+    <row r="83" spans="10:15">
       <c r="J83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:15">
       <c r="K84" t="s">
         <v>37</v>
       </c>
@@ -9185,11 +9271,11 @@
       <c r="N84">
         <v>-2</v>
       </c>
-      <c r="O84" s="7" t="s">
+      <c r="O84" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:15">
       <c r="K85" t="s">
         <v>36</v>
       </c>
@@ -9202,7 +9288,7 @@
       <c r="N85">
         <v>19</v>
       </c>
-      <c r="O85" s="7"/>
+      <c r="O85" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B18">
@@ -9232,9 +9318,9 @@
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>13</v>
       </c>
@@ -9251,7 +9337,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>54</v>
       </c>
@@ -9268,7 +9354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>41</v>
       </c>
@@ -9285,7 +9371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>34</v>
       </c>
@@ -9302,7 +9388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>39</v>
       </c>
@@ -9328,11 +9414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35BC02-63B9-46CF-A292-10D0519F53B3}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -9341,29 +9427,29 @@
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1">
+      <c r="A2" s="8">
         <v>16</v>
       </c>
       <c r="C2">
         <f>VALUE(LEFT(A2,1))</f>
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="9" t="str">
         <f>RIGHT(A2,1)</f>
         <v>6</v>
       </c>
@@ -9372,15 +9458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5">
+      <c r="A3" s="10">
         <v>19</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C25" si="0">VALUE(LEFT(A3,1))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="9" t="str">
         <f t="shared" ref="D3:D25" si="1">RIGHT(A3,1)</f>
         <v>9</v>
       </c>
@@ -9389,15 +9475,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
         <v>23</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9406,15 +9492,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
         <v>23</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9423,15 +9509,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
         <v>26</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9440,15 +9526,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
         <v>27</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -9457,15 +9543,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
         <v>28</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9474,15 +9560,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
         <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9491,15 +9577,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
         <v>30</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9508,15 +9594,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5">
+      <c r="A11" s="10">
         <v>31</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9525,15 +9611,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
         <v>31</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9542,15 +9628,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
         <v>31</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -9559,15 +9645,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:5">
+      <c r="A14" s="8">
         <v>32</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -9576,15 +9662,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:5">
+      <c r="A15" s="10">
         <v>35</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9593,15 +9679,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:5">
+      <c r="A16" s="8">
         <v>36</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9610,15 +9696,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5">
+      <c r="A17" s="10">
         <v>37</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -9627,15 +9713,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:5">
+      <c r="A18" s="8">
         <v>40</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9644,15 +9730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
         <v>40</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9661,15 +9747,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
         <v>44</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9678,15 +9764,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
         <v>45</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9695,15 +9781,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:5">
+      <c r="A22" s="8">
         <v>48</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="D22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -9712,15 +9798,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
         <v>60</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9729,15 +9815,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:5">
+      <c r="A24" s="8">
         <v>60</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9746,15 +9832,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+    <row r="25" spans="1:5">
+      <c r="A25" s="11">
         <v>60</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9773,15 +9859,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>13</v>
       </c>
@@ -9794,11 +9883,8 @@
       <c r="F1">
         <v>6</v>
       </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>13</v>
       </c>
@@ -9826,11 +9912,8 @@
       <c r="K2">
         <v>7</v>
       </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>13</v>
       </c>
@@ -9867,11 +9950,8 @@
       <c r="N3">
         <v>8</v>
       </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>13</v>
       </c>
@@ -9896,11 +9976,8 @@
       <c r="J4">
         <v>9</v>
       </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>14</v>
       </c>
@@ -9922,11 +9999,8 @@
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9942,11 +10016,8 @@
       <c r="G6">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>14</v>
       </c>
@@ -9957,7 +10028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>14</v>
       </c>
@@ -9965,7 +10036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9973,7 +10044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>14</v>
       </c>
@@ -9981,7 +10052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>15</v>
       </c>
@@ -9989,7 +10060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>15</v>
       </c>
@@ -9997,7 +10068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>15</v>
       </c>
@@ -10005,7 +10076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>15</v>
       </c>
@@ -10013,7 +10084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>15</v>
       </c>
@@ -10021,7 +10092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10029,7 +10100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10037,7 +10108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10045,7 +10116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10053,87 +10124,367 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q21" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDEX(TodosLosDatos,ROW($1:4)/4,MODulo(ROW($1:1)-1,4)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" t="s">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>17</v>
       </c>
@@ -10141,7 +10492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>17</v>
       </c>
@@ -10149,7 +10500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>17</v>
       </c>
@@ -10157,7 +10508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>17</v>
       </c>
@@ -10165,7 +10516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>17</v>
       </c>
@@ -10173,7 +10524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>17</v>
       </c>
@@ -10181,7 +10532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>17</v>
       </c>
@@ -10189,7 +10540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>17</v>
       </c>
@@ -10197,7 +10548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>17</v>
       </c>
@@ -10205,7 +10556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>18</v>
       </c>
@@ -10213,7 +10564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>18</v>
       </c>
@@ -10221,57 +10572,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/P&E/Clase 02(2).xlsx
+++ b/P&E/Clase 02(2).xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2913A-A7F3-41D3-8A05-EC0F631430BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540BACE4-7EF9-4CDB-A05F-DC5D03833F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D238DEB2-9FD1-4D5D-B06E-9A5C561EFDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Circular" sheetId="5" r:id="rId1"/>
     <sheet name="Caja y Bigotes" sheetId="6" r:id="rId2"/>
-    <sheet name="Tallos y Hojas" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
-    <sheet name="TMP" sheetId="8" r:id="rId5"/>
+    <sheet name="TMP" sheetId="8" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">TMP!$A:$A</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Caja y Bigotes'!$B$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Caja y Bigotes'!$B$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Caja y Bigotes'!$B$5:$B$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TMP!$A:$A</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">TMP!$C$1:$C$50</definedName>
     <definedName name="CyB_Ex1">'Caja y Bigotes'!$B$5:$B$18</definedName>
     <definedName name="EdadesAmplitud">[1]Video6!$D$13</definedName>
@@ -54,7 +53,7 @@
     <definedName name="MuestraMinimo">#REF!</definedName>
     <definedName name="MuestraNuevoRango">#REF!</definedName>
     <definedName name="MuestraRango">#REF!</definedName>
-    <definedName name="TodosLosDatos">TMP!$F$20:$O$29</definedName>
+    <definedName name="TodosLosDatos">TMP!#REF!</definedName>
     <definedName name="VelocidadAmplitud">#REF!</definedName>
     <definedName name="VelocidadDatos">#REF!</definedName>
     <definedName name="VelocidadMinima">#REF!</definedName>
@@ -80,9 +79,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -93,30 +91,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Color</t>
   </si>
@@ -273,300 +257,12 @@
   <si>
     <t>7 menos 9</t>
   </si>
-  <si>
-    <t>Customer Age</t>
-  </si>
-  <si>
-    <t>Stem</t>
-  </si>
-  <si>
-    <t>Leaf</t>
-  </si>
-  <si>
-    <t>Leaf Position</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>7.32</t>
-  </si>
-  <si>
-    <t>9.02</t>
-  </si>
-  <si>
-    <t>11.07</t>
-  </si>
-  <si>
-    <t>13.32</t>
-  </si>
-  <si>
-    <t>15.07</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>18.32</t>
-  </si>
-  <si>
-    <t>20.07</t>
-  </si>
-  <si>
-    <t>22.38</t>
-  </si>
-  <si>
-    <t>6.02</t>
-  </si>
-  <si>
-    <t>7.37</t>
-  </si>
-  <si>
-    <t>9.07</t>
-  </si>
-  <si>
-    <t>11.32</t>
-  </si>
-  <si>
-    <t>13.37</t>
-  </si>
-  <si>
-    <t>15.20</t>
-  </si>
-  <si>
-    <t>17.02</t>
-  </si>
-  <si>
-    <t>18.37</t>
-  </si>
-  <si>
-    <t>20.20</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>9.24</t>
-  </si>
-  <si>
-    <t>11.37</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>15.32</t>
-  </si>
-  <si>
-    <t>17.07</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>20.32</t>
-  </si>
-  <si>
-    <t>6.37</t>
-  </si>
-  <si>
-    <t>8.02</t>
-  </si>
-  <si>
-    <t>9.32</t>
-  </si>
-  <si>
-    <t>12.02</t>
-  </si>
-  <si>
-    <t>14.02</t>
-  </si>
-  <si>
-    <t>15.37</t>
-  </si>
-  <si>
-    <t>17.20</t>
-  </si>
-  <si>
-    <t>19.02</t>
-  </si>
-  <si>
-    <t>20.37</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>9.37</t>
-  </si>
-  <si>
-    <t>12.07</t>
-  </si>
-  <si>
-    <t>14.07</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <t>17.32</t>
-  </si>
-  <si>
-    <t>19.07</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>10.02</t>
-  </si>
-  <si>
-    <t>12.32</t>
-  </si>
-  <si>
-    <t>14.20</t>
-  </si>
-  <si>
-    <t>16.02</t>
-  </si>
-  <si>
-    <t>17.37</t>
-  </si>
-  <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>10.07</t>
-  </si>
-  <si>
-    <t>12.37</t>
-  </si>
-  <si>
-    <t>14.32</t>
-  </si>
-  <si>
-    <t>16.07</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>19.32</t>
-  </si>
-  <si>
-    <t>21.07</t>
-  </si>
-  <si>
-    <t>7.07</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>13.02</t>
-  </si>
-  <si>
-    <t>14.37</t>
-  </si>
-  <si>
-    <t>16.20</t>
-  </si>
-  <si>
-    <t>18.02</t>
-  </si>
-  <si>
-    <t>19.37</t>
-  </si>
-  <si>
-    <t>21.20</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>8.37</t>
-  </si>
-  <si>
-    <t>10.37</t>
-  </si>
-  <si>
-    <t>13.07</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>16.32</t>
-  </si>
-  <si>
-    <t>18.07</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>21.32</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>8.51</t>
-  </si>
-  <si>
-    <t>11.02</t>
-  </si>
-  <si>
-    <t>13.20</t>
-  </si>
-  <si>
-    <t>15.02</t>
-  </si>
-  <si>
-    <t>16.37</t>
-  </si>
-  <si>
-    <t>18.20</t>
-  </si>
-  <si>
-    <t>20.02</t>
-  </si>
-  <si>
-    <t>21.37</t>
-  </si>
-  <si>
-    <t>Datos</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,36 +311,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -652,39 +328,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -692,13 +340,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1588,1454 +1229,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1700" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Age</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1700" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Breakdown of Customers</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1700" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27462026488473018"/>
-          <c:y val="1.5776592653873239E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13375722589890987"/>
-          <c:y val="0.16853110436119842"/>
-          <c:w val="0.82734449221454676"/>
-          <c:h val="0.72395271651081139"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4FF000C9-9209-4BCC-8D96-4AD18D0A9D4C}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E468F5E9-B42B-4BA5-AC16-A78250663A1C}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AFE35AEA-4062-41EC-BDB3-CF344DD66B8D}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{819D125E-43DD-4F4D-A7DB-7390C08A516A}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CBBCE25E-83A5-43F6-9501-D6282D998E9D}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{43B7F2BF-A0D5-4929-8114-D45929B5BEE8}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6CD68239-74E9-44C4-8C96-1435B864FBD3}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{68FB4888-695D-455F-AE24-C60E6DAF1008}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A0F36D69-D154-4ECE-982A-7853F5689D42}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4BCF7BAE-E1B7-4379-978F-435C532C407C}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{446A66DB-A8BB-4673-8B18-2DE251532075}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{81227C36-5994-4FD8-9A0F-4C970443F464}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{05715539-6D83-45F7-AB52-F9695696AD89}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A8F99102-8DD9-4C4F-9C49-925F9D72000D}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E25DBA24-1A02-4DD5-BAE5-5CBF970B542F}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{63815013-11C7-4FFB-8014-FA6872FA005D}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AB8600A2-E2B9-4C5A-A441-1412B9841F7A}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5B72CA59-015E-4C20-9AEC-058283F55D25}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{99BBA0A0-9CBC-42A7-AE25-4E626B11F475}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4C4F087F-0503-4A15-BBBF-347DB59E497E}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C0B61598-E8B9-4154-8DB0-4A935F413B18}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6AE173BE-D80C-48F2-A015-4D81FA2C156B}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C4E58F7C-5748-4048-91FA-63791D872732}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{49ADE3E1-8676-4B1C-8A94-2BB41F46670D}" type="CELLRANGE">
-                      <a:rPr lang="es-AR"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="es-AR"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-3255-4CE3-A836-580613E95086}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Sheet1!$D$2:$D$25</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="24"/>
-                  <c:pt idx="0">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-3255-4CE3-A836-580613E95086}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1080583680"/>
-        <c:axId val="1171962480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1080583680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Leaves</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47416854979814421"/>
-              <c:y val="0.10609259018165051"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1171962480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1171962480"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Stem</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1080583680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3073,7 +1272,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A82E3D8E-A853-414D-B0AE-99382B0E5E5D}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Edad</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3107,7 +1306,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3381,46 +1580,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -6000,522 +4159,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6646,8 +4289,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1562100" y="1919286"/>
-              <a:ext cx="3705225" cy="3357564"/>
+              <a:off x="1562100" y="1871661"/>
+              <a:ext cx="3705225" cy="3271839"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6724,7 +4367,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="352425" y="9234487"/>
+              <a:off x="352425" y="9024937"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6802,7 +4445,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="14497050"/>
+              <a:off x="0" y="14287500"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6836,190 +4479,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>805205</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>175261</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EAF503-7632-4C36-B78B-65353EE08BDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.32199</cdr:x>
-      <cdr:y>0.90198</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.78105</cdr:x>
-      <cdr:y>0.99642</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01826E4A-D23F-42F7-952C-DB190F064884}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1640815" y="3639104"/>
-          <a:ext cx="2339340" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.26374</cdr:x>
-      <cdr:y>0.92256</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.87683</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC00994-5A2F-463B-B8EA-90C55C993B74}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1333112" y="3746957"/>
-          <a:ext cx="3098872" cy="314503"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Key:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>1 |</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>represents the age of 15</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7444,66 +4903,286 @@
 </externalLink>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>8</v>
-    <v>3</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="TEMPORAL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>3</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>3</v>
+          </cell>
+          <cell r="E5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="E6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="E7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>3</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>3</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>3</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>3</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>3</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>2</v>
+          </cell>
+          <cell r="E14">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>3</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="E16">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>3</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="E17">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>4</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>4</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>4</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>4</v>
+          </cell>
+          <cell r="E20">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>4</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="E21">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="E22">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>6</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>6</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>6</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7582,17 +5261,6 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B730A45C-61E1-4877-B205-2491A776A963}" name="Tabla6" displayName="Tabla6" ref="Q20:Q21" totalsRowShown="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A97DF1E5-2B91-402A-86C2-D8F0889D67B8}" name="Datos">
-      <calculatedColumnFormula array="1">INDEX(TodosLosDatos,ROW($1:4)/4,MODulo(ROW($1:1)-1,4)+1)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8255,7 +5923,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
@@ -8265,7 +5933,7 @@
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:21">
       <c r="B1" s="2"/>
       <c r="C1" s="2">
         <v>11</v>
@@ -8289,7 +5957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:21">
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>11</v>
@@ -8354,7 +6022,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75">
+    <row r="6" spans="1:21">
       <c r="A6" cm="1">
         <f t="array" ref="A6">ROW(2:2)</f>
         <v>2</v>
@@ -8387,7 +6055,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75">
+    <row r="7" spans="1:21">
       <c r="A7" cm="1">
         <f t="array" ref="A7">ROW(3:3)</f>
         <v>3</v>
@@ -8420,7 +6088,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75">
+    <row r="8" spans="1:21">
       <c r="A8" cm="1">
         <f t="array" ref="A8">ROW(4:4)</f>
         <v>4</v>
@@ -8486,7 +6154,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75">
+    <row r="10" spans="1:21">
       <c r="A10" cm="1">
         <f t="array" ref="A10">ROW(6:6)</f>
         <v>6</v>
@@ -8513,7 +6181,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75">
+    <row r="11" spans="1:21">
       <c r="A11" cm="1">
         <f t="array" ref="A11">ROW(7:7)</f>
         <v>7</v>
@@ -8540,7 +6208,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75">
+    <row r="12" spans="1:21">
       <c r="A12" cm="1">
         <f t="array" ref="A12">ROW(8:8)</f>
         <v>8</v>
@@ -8567,7 +6235,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75">
+    <row r="13" spans="1:21">
       <c r="A13" cm="1">
         <f t="array" ref="A13">ROW(9:9)</f>
         <v>9</v>
@@ -8594,7 +6262,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75">
+    <row r="14" spans="1:21">
       <c r="A14" cm="1">
         <f t="array" ref="A14">ROW(10:10)</f>
         <v>10</v>
@@ -8621,7 +6289,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75">
+    <row r="15" spans="1:21">
       <c r="A15" cm="1">
         <f t="array" ref="A15">ROW(11:11)</f>
         <v>11</v>
@@ -8648,7 +6316,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75">
+    <row r="16" spans="1:21">
       <c r="A16" cm="1">
         <f t="array" ref="A16">ROW(12:12)</f>
         <v>12</v>
@@ -8675,7 +6343,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75">
+    <row r="17" spans="1:21">
       <c r="A17" cm="1">
         <f t="array" ref="A17">ROW(13:13)</f>
         <v>13</v>
@@ -8702,7 +6370,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75">
+    <row r="18" spans="1:21">
       <c r="A18" cm="1">
         <f t="array" ref="A18">ROW(14:14)</f>
         <v>14</v>
@@ -8797,7 +6465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>13</v>
       </c>
@@ -8813,7 +6481,7 @@
         <v xml:space="preserve">13; 13; 13; 13; </v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -8829,7 +6497,7 @@
         <v xml:space="preserve">14; 14; 14; 14; 14; 14; </v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>15</v>
       </c>
@@ -8845,7 +6513,7 @@
         <v xml:space="preserve">15; 15; 15; 15; 15; 15; 15; </v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>16</v>
       </c>
@@ -8861,7 +6529,7 @@
         <v xml:space="preserve">16; 16; 16; 16; 16; 16; 16; 16; </v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>17</v>
       </c>
@@ -8877,7 +6545,7 @@
         <v xml:space="preserve">17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; 17; </v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>18</v>
       </c>
@@ -8893,7 +6561,7 @@
         <v xml:space="preserve">18; 18; 18; 18; 18; 18; 18; </v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>19</v>
       </c>
@@ -8909,7 +6577,7 @@
         <v xml:space="preserve">19; 19; 19; 19; </v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>22</v>
       </c>
@@ -9234,7 +6902,7 @@
       <c r="N77">
         <v>2.5</v>
       </c>
-      <c r="O77" s="12" t="s">
+      <c r="O77" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9251,7 +6919,7 @@
       <c r="N78">
         <v>14.5</v>
       </c>
-      <c r="O78" s="12"/>
+      <c r="O78" s="7"/>
     </row>
     <row r="83" spans="10:15">
       <c r="J83" t="s">
@@ -9271,7 +6939,7 @@
       <c r="N84">
         <v>-2</v>
       </c>
-      <c r="O84" s="12" t="s">
+      <c r="O84" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9288,7 +6956,7 @@
       <c r="N85">
         <v>19</v>
       </c>
-      <c r="O85" s="12"/>
+      <c r="O85" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B18">
@@ -9310,725 +6978,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C8B7E-109F-4BBA-B65F-6B34664AA6CF}">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E20" sqref="E1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>13</v>
       </c>
-      <c r="B1">
-        <v>22</v>
-      </c>
-      <c r="C1">
-        <v>38</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA35BC02-63B9-46CF-A292-10D0519F53B3}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1">
-      <c r="A2" s="8">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <f>VALUE(LEFT(A2,1))</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f>RIGHT(A2,1)</f>
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIF($C$2:C2,C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">VALUE(LEFT(A3,1))</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f t="shared" ref="D3:D25" si="1">RIGHT(A3,1)</f>
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <f>COUNTIF($C$2:C3,C3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f>COUNTIF($C$2:C4,C4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <f>COUNTIF($C$2:C5,C5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f>COUNTIF($C$2:C6,C6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <f>COUNTIF($C$2:C7,C7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>COUNTIF($C$2:C8,C8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <f>COUNTIF($C$2:C9,C9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>COUNTIF($C$2:C10,C10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f>COUNTIF($C$2:C11,C11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f>COUNTIF($C$2:C12,C12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f>COUNTIF($C$2:C13,C13)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <f>COUNTIF($C$2:C14,C14)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <f>COUNTIF($C$2:C15,C15)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <f>COUNTIF($C$2:C16,C16)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <f>COUNTIF($C$2:C17,C17)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>COUNTIF($C$2:C18,C18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>COUNTIF($C$2:C19,C19)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <f>COUNTIF($C$2:C20,C20)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <f>COUNTIF($C$2:C21,C21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <f>COUNTIF($C$2:C22,C22)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10">
-        <v>60</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>COUNTIF($C$2:C23,C23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>COUNTIF($C$2:C24,C24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11">
-        <v>60</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>COUNTIF($C$2:C25,C25)</f>
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18428EFC-BB06-4839-9D86-50D1C85F8FE3}">
-  <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:Q50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1">
-        <v>13</v>
-      </c>
       <c r="C1">
         <v>6</v>
       </c>
-      <c r="E1">
-        <v>6</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -10036,7 +7052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -10044,7 +7060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -10052,7 +7068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -10060,7 +7076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -10068,7 +7084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>15</v>
       </c>
@@ -10076,7 +7092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -10084,7 +7100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -10092,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10100,7 +7116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10108,7 +7124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10116,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10124,367 +7140,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" t="s">
-        <v>60</v>
-      </c>
-      <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="Q21" ca="1">INDEX(TodosLosDatos,ROW($1:4)/4,MODulo(ROW($1:1)-1,4)+1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" t="s">
-        <v>87</v>
-      </c>
-      <c r="N23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="C24">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" t="s">
-        <v>104</v>
-      </c>
-      <c r="M25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" t="s">
-        <v>113</v>
-      </c>
-      <c r="M26" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" t="s">
-        <v>121</v>
-      </c>
-      <c r="L27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>17</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" t="s">
-        <v>130</v>
-      </c>
-      <c r="L28" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" t="s">
-        <v>140</v>
-      </c>
-      <c r="M29" t="s">
-        <v>141</v>
-      </c>
-      <c r="N29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>17</v>
       </c>
@@ -10492,7 +7228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -10500,7 +7236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>17</v>
       </c>
@@ -10625,8 +7361,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>